--- a/va_facility_data_2025-02-20/Lane A. Evans VA Community Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Lane%20A.%20Evans%20VA%20Community%20Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lane A. Evans VA Community Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Lane%20A.%20Evans%20VA%20Community%20Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raf5f28c6344044fb9af3c44c073f7602"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Reb1c42298d954960a32ad7b1c3630efb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R272732d79c1243a19e26a8d7d95bd199"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra5068b938ef14224a754f5a97d3fcbaf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0eea3efa19a44ec5979b8145a695c461"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2823058657b44708a9b2e9b3a5911a43"/>
   </x:sheets>
 </x:workbook>
 </file>
